--- a/SPLS-v3.0/Cargo Design Labels -Entry- Considerations.xlsx
+++ b/SPLS-v3.0/Cargo Design Labels -Entry- Considerations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MSCPJT\seaport-portal-MSQL\SPLS-v3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0EAE150-23CA-4F5E-9FF5-260BE7D04F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96BEBA6-3E2B-4704-86E2-C798E4AB5763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CFF9E26-87BD-4064-B531-A8BA76FECC9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CFF9E26-87BD-4064-B531-A8BA76FECC9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Cargo Simulator</t>
   </si>
@@ -122,27 +122,83 @@
     <t>Add (for further instalments but not more than 10 instalments)</t>
   </si>
   <si>
-    <t xml:space="preserve">Simalate </t>
-  </si>
-  <si>
     <t>Operation Logistic</t>
   </si>
   <si>
     <t>Cargo Charges</t>
   </si>
   <si>
-    <t>Both</t>
-  </si>
-  <si>
     <t>&lt;on click the relevat simulation to be shown&gt;</t>
+  </si>
+  <si>
+    <t>Tray Type</t>
+  </si>
+  <si>
+    <t>Foreign/Coastal</t>
+  </si>
+  <si>
+    <t>Operation Type</t>
+  </si>
+  <si>
+    <t>Loading/Unloading</t>
+  </si>
+  <si>
+    <t>Storage Area</t>
+  </si>
+  <si>
+    <t>Open/Covered</t>
+  </si>
+  <si>
+    <t>Simulate</t>
+  </si>
+  <si>
+    <t>Wharfage</t>
+  </si>
+  <si>
+    <t>Cranage</t>
+  </si>
+  <si>
+    <t>Demurrage</t>
+  </si>
+  <si>
+    <t>Operation Logistics</t>
+  </si>
+  <si>
+    <t>Expected Output:</t>
+  </si>
+  <si>
+    <t>Preferred Berth</t>
+  </si>
+  <si>
+    <t>&lt;up to 5 berths&gt;</t>
+  </si>
+  <si>
+    <t>Time Taken For</t>
+  </si>
+  <si>
+    <t>&lt;Both, in hrs/days&gt;</t>
+  </si>
+  <si>
+    <t>Free days</t>
+  </si>
+  <si>
+    <t>Calc from dem_free_days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -238,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -249,6 +305,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,27 +641,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A47A9E1-7035-4841-AC1A-EFC986A21B33}">
-  <dimension ref="B2:F31"/>
+  <dimension ref="B2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -614,10 +672,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -626,10 +684,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -638,10 +696,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -650,10 +708,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -662,10 +720,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -674,117 +732,212 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D39" s="11"/>
+      <c r="F39" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>32</v>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C5" xr:uid="{F3AAB986-808E-4B5F-936E-EA2580BA41D9}">
       <formula1>"Break Bulk, Dry Bulk, Liquid Bulk, Containers"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>